--- a/results/simple_accuracy/simple_accuracy_summarized_results.xlsx
+++ b/results/simple_accuracy/simple_accuracy_summarized_results.xlsx
@@ -9,13 +9,13 @@
     <sheet name="All" r:id="rId3" sheetId="1"/>
     <sheet name="Assigned" r:id="rId4" sheetId="2"/>
     <sheet name="Unassigned" r:id="rId5" sheetId="3"/>
-    <sheet name="Other metrics(unlabeled pctg, c" r:id="rId6" sheetId="4"/>
+    <sheet name="Supervised methods other metric" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="42">
   <si>
     <t>All results(assigned/unassigned combined)</t>
   </si>
@@ -131,16 +131,13 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>Other metrics(unlabeled pctg, cluster num...)</t>
+    <t>Other metrics(unlabeled pctg...)</t>
   </si>
   <si>
     <t>metrics</t>
   </si>
   <si>
     <t>unlabeled_pctg</t>
-  </si>
-  <si>
-    <t>cluster_num</t>
   </si>
   <si>
     <t>pred_type_max_pctg</t>
@@ -2736,25 +2733,25 @@
         <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>0.49533239038189536</v>
       </c>
       <c r="D5" t="n">
-        <v>9.0</v>
+        <v>0.4625176803394625</v>
       </c>
       <c r="E5" t="n">
-        <v>9.0</v>
+        <v>0.2115983026874116</v>
       </c>
       <c r="F5" t="n">
-        <v>7.0</v>
+        <v>0.47326732673267324</v>
       </c>
       <c r="G5" t="n">
-        <v>6.0</v>
+        <v>0.4297029702970297</v>
       </c>
       <c r="H5" t="n">
-        <v>8.0</v>
+        <v>0.4995756718528996</v>
       </c>
       <c r="I5" t="n">
-        <v>8.0</v>
+        <v>0.4908062234794908</v>
       </c>
       <c r="J5" t="n">
         <v>0.539057892933431</v>
@@ -2786,58 +2783,58 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>0.49533239038189536</v>
+        <v>0.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4625176803394625</v>
+        <v>0.1143184859491493</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2115983026874116</v>
+        <v>0.24698910342190786</v>
       </c>
       <c r="F6" t="n">
-        <v>0.47326732673267324</v>
+        <v>0.04148346396482508</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4297029702970297</v>
+        <v>0.25845918562416365</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4995756718528996</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4908062234794908</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.539057892933431</v>
+        <v>0.9489861997985368</v>
       </c>
       <c r="K6" t="n">
-        <v>1.3572155246905484</v>
+        <v>1.6177899474534594</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0813479886179769</v>
+        <v>0.05571645967306465</v>
       </c>
       <c r="M6" t="n">
-        <v>0.17798359649612233</v>
+        <v>0.15549064847086544</v>
       </c>
       <c r="N6" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4947666195190948</v>
+        <v>0.4240107054100554</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9062563010192667</v>
+        <v>0.9436238552897658</v>
       </c>
       <c r="Q6" t="n">
-        <v>3535.0</v>
+        <v>5231.0</v>
       </c>
       <c r="R6" t="n">
-        <v>17923.0</v>
+        <v>40742.0</v>
       </c>
     </row>
     <row r="7">
@@ -2845,28 +2842,28 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>0.41349646339132096</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1143184859491493</v>
+        <v>0.31523609252532975</v>
       </c>
       <c r="E7" t="n">
         <v>0.24698910342190786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04148346396482508</v>
+        <v>0.41655515197858917</v>
       </c>
       <c r="G7" t="n">
-        <v>0.25845918562416365</v>
+        <v>0.3123685719747658</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>0.4255400497036895</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0</v>
+        <v>0.4169374880519977</v>
       </c>
       <c r="J7" t="n">
         <v>0.9489861997985368</v>
@@ -2898,119 +2895,119 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
+        <v>0.13451086956521738</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6820652173913043</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3328804347826087</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4171195652173913</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.005434782608695652</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8810360329890536</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.645534698964188</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.07174862458170268</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.05700187170324997</v>
+      </c>
+      <c r="N8" t="n">
         <v>8.0</v>
       </c>
-      <c r="E8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9489861997985368</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.6177899474534594</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.05571645967306465</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.15549064847086544</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.0</v>
-      </c>
       <c r="O8" t="n">
-        <v>0.4240107054100554</v>
+        <v>0.40896739130434784</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9436238552897658</v>
+        <v>0.9657833873390003</v>
       </c>
       <c r="Q8" t="n">
-        <v>5231.0</v>
+        <v>736.0</v>
       </c>
       <c r="R8" t="n">
-        <v>40742.0</v>
+        <v>17631.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41349646339132096</v>
+        <v>0.31521739130434784</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31523609252532975</v>
+        <v>0.27853260869565216</v>
       </c>
       <c r="E9" t="n">
-        <v>0.24698910342190786</v>
+        <v>0.6820652173913043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.41655515197858917</v>
+        <v>0.3328804347826087</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3123685719747658</v>
+        <v>0.4171195652173913</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4255400497036895</v>
+        <v>0.42391304347826086</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4169374880519977</v>
+        <v>0.4483695652173913</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9489861997985368</v>
+        <v>0.8810360329890536</v>
       </c>
       <c r="K9" t="n">
-        <v>1.6177899474534594</v>
+        <v>1.645534698964188</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05571645967306465</v>
+        <v>0.07174862458170268</v>
       </c>
       <c r="M9" t="n">
-        <v>0.15549064847086544</v>
+        <v>0.05700187170324997</v>
       </c>
       <c r="N9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4240107054100554</v>
+        <v>0.40896739130434784</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9436238552897658</v>
+        <v>0.9657833873390003</v>
       </c>
       <c r="Q9" t="n">
-        <v>5231.0</v>
+        <v>736.0</v>
       </c>
       <c r="R9" t="n">
-        <v>40742.0</v>
+        <v>17631.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
@@ -3019,334 +3016,334 @@
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.13451086956521738</v>
+        <v>0.13399153737658676</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6820652173913043</v>
+        <v>0.5613540197461213</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3328804347826087</v>
+        <v>0.382228490832158</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4171195652173913</v>
+        <v>0.20451339915373765</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005434782608695652</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8810360329890536</v>
+        <v>0.9278208846741718</v>
       </c>
       <c r="K10" t="n">
-        <v>1.645534698964188</v>
+        <v>1.656705520645804</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07174862458170268</v>
+        <v>0.07638487336648549</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05700187170324997</v>
+        <v>0.0608303457846652</v>
       </c>
       <c r="N10" t="n">
         <v>8.0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.40896739130434784</v>
+        <v>0.41607898448519043</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9657833873390003</v>
+        <v>0.9653167334423689</v>
       </c>
       <c r="Q10" t="n">
-        <v>736.0</v>
+        <v>709.0</v>
       </c>
       <c r="R10" t="n">
-        <v>17631.0</v>
+        <v>17294.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>8.0</v>
+        <v>0.4315937940761636</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>0.3328631875881523</v>
       </c>
       <c r="E11" t="n">
-        <v>5.0</v>
+        <v>0.5613540197461213</v>
       </c>
       <c r="F11" t="n">
-        <v>8.0</v>
+        <v>0.382228490832158</v>
       </c>
       <c r="G11" t="n">
-        <v>9.0</v>
+        <v>0.3385049365303244</v>
       </c>
       <c r="H11" t="n">
-        <v>8.0</v>
+        <v>0.44287729196050774</v>
       </c>
       <c r="I11" t="n">
-        <v>8.0</v>
+        <v>0.43441466854724964</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8810360329890536</v>
+        <v>0.9278208846741718</v>
       </c>
       <c r="K11" t="n">
-        <v>1.645534698964188</v>
+        <v>1.656705520645804</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07174862458170268</v>
+        <v>0.07638487336648549</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05700187170324997</v>
+        <v>0.0608303457846652</v>
       </c>
       <c r="N11" t="n">
         <v>8.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.40896739130434784</v>
+        <v>0.41607898448519043</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9657833873390003</v>
+        <v>0.9653167334423689</v>
       </c>
       <c r="Q11" t="n">
-        <v>736.0</v>
+        <v>709.0</v>
       </c>
       <c r="R11" t="n">
-        <v>17631.0</v>
+        <v>17294.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>0.31521739130434784</v>
+        <v>0.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.27853260869565216</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6820652173913043</v>
+        <v>0.5035460992907801</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3328804347826087</v>
+        <v>0.5063829787234042</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4171195652173913</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="H12" t="n">
-        <v>0.42391304347826086</v>
+        <v>0.005673758865248227</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4483695652173913</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8810360329890536</v>
+        <v>0.9232265786809262</v>
       </c>
       <c r="K12" t="n">
-        <v>1.645534698964188</v>
+        <v>1.6481466472952742</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07174862458170268</v>
+        <v>0.048316251830161056</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05700187170324997</v>
+        <v>0.027480572136501853</v>
       </c>
       <c r="N12" t="n">
         <v>8.0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.40896739130434784</v>
+        <v>0.4269503546099291</v>
       </c>
       <c r="P12" t="n">
-        <v>0.9657833873390003</v>
+        <v>0.9781659489799424</v>
       </c>
       <c r="Q12" t="n">
-        <v>736.0</v>
+        <v>705.0</v>
       </c>
       <c r="R12" t="n">
-        <v>17631.0</v>
+        <v>17758.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>0.46382978723404256</v>
       </c>
       <c r="D13" t="n">
-        <v>0.13399153737658676</v>
+        <v>0.35319148936170214</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5613540197461213</v>
+        <v>0.5035460992907801</v>
       </c>
       <c r="F13" t="n">
-        <v>0.382228490832158</v>
+        <v>0.5063829787234042</v>
       </c>
       <c r="G13" t="n">
-        <v>0.20451339915373765</v>
+        <v>0.3517730496453901</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0.4553191489361702</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>0.47375886524822697</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9278208846741718</v>
+        <v>0.9232265786809262</v>
       </c>
       <c r="K13" t="n">
-        <v>1.656705520645804</v>
+        <v>1.6481466472952742</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07638487336648549</v>
+        <v>0.048316251830161056</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0608303457846652</v>
+        <v>0.027480572136501853</v>
       </c>
       <c r="N13" t="n">
         <v>8.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.41607898448519043</v>
+        <v>0.4269503546099291</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9653167334423689</v>
+        <v>0.9781659489799424</v>
       </c>
       <c r="Q13" t="n">
-        <v>709.0</v>
+        <v>705.0</v>
       </c>
       <c r="R13" t="n">
-        <v>17294.0</v>
+        <v>17758.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.0</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="E14" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.0</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="G14" t="n">
-        <v>8.0</v>
+        <v>0.11956521739130435</v>
       </c>
       <c r="H14" t="n">
-        <v>8.0</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="I14" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9278208846741718</v>
+        <v>0.916621875846559</v>
       </c>
       <c r="K14" t="n">
-        <v>1.656705520645804</v>
+        <v>2.9874408019917076</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07638487336648549</v>
+        <v>0.26747222364446266</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0608303457846652</v>
+        <v>0.21427474271670682</v>
       </c>
       <c r="N14" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.41607898448519043</v>
+        <v>0.11956521739130435</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9653167334423689</v>
+        <v>0.876921972427334</v>
       </c>
       <c r="Q14" t="n">
-        <v>709.0</v>
+        <v>92.0</v>
       </c>
       <c r="R14" t="n">
-        <v>17294.0</v>
+        <v>19531.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4315937940761636</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3328631875881523</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5613540197461213</v>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="F15" t="n">
-        <v>0.382228490832158</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3385049365303244</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="H15" t="n">
-        <v>0.44287729196050774</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="I15" t="n">
-        <v>0.43441466854724964</v>
+        <v>1.0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9278208846741718</v>
+        <v>0.916621875846559</v>
       </c>
       <c r="K15" t="n">
-        <v>1.656705520645804</v>
+        <v>2.9874408019917076</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07638487336648549</v>
+        <v>0.26747222364446266</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0608303457846652</v>
+        <v>0.21427474271670682</v>
       </c>
       <c r="N15" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.41607898448519043</v>
+        <v>0.11956521739130435</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9653167334423689</v>
+        <v>0.876921972427334</v>
       </c>
       <c r="Q15" t="n">
-        <v>709.0</v>
+        <v>92.0</v>
       </c>
       <c r="R15" t="n">
-        <v>17294.0</v>
+        <v>19531.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -3355,334 +3352,334 @@
         <v>0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1773049645390071</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5035460992907801</v>
+        <v>1.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5063829787234042</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005673758865248227</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9232265786809262</v>
+        <v>0.9447722586018809</v>
       </c>
       <c r="K16" t="n">
-        <v>1.6481466472952742</v>
+        <v>3.1282899304784695</v>
       </c>
       <c r="L16" t="n">
-        <v>0.048316251830161056</v>
+        <v>0.3967041614590566</v>
       </c>
       <c r="M16" t="n">
-        <v>0.027480572136501853</v>
+        <v>0.36078322455214556</v>
       </c>
       <c r="N16" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4269503546099291</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9781659489799424</v>
+        <v>0.8601801560020534</v>
       </c>
       <c r="Q16" t="n">
-        <v>705.0</v>
+        <v>89.0</v>
       </c>
       <c r="R16" t="n">
-        <v>17758.0</v>
+        <v>21603.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>7.0</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="D17" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.0</v>
+        <v>0.5280898876404494</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#DIV/0!</v>
       </c>
       <c r="F17" t="n">
-        <v>7.0</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="G17" t="n">
-        <v>9.0</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="H17" t="n">
-        <v>9.0</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="I17" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9232265786809262</v>
+        <v>0.9447722586018809</v>
       </c>
       <c r="K17" t="n">
-        <v>1.6481466472952742</v>
+        <v>3.1282899304784695</v>
       </c>
       <c r="L17" t="n">
-        <v>0.048316251830161056</v>
+        <v>0.3967041614590566</v>
       </c>
       <c r="M17" t="n">
-        <v>0.027480572136501853</v>
+        <v>0.36078322455214556</v>
       </c>
       <c r="N17" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4269503546099291</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9781659489799424</v>
+        <v>0.8601801560020534</v>
       </c>
       <c r="Q17" t="n">
-        <v>705.0</v>
+        <v>89.0</v>
       </c>
       <c r="R17" t="n">
-        <v>17758.0</v>
+        <v>21603.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>0.46382978723404256</v>
+        <v>0.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.35319148936170214</v>
+        <v>0.12264150943396226</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5035460992907801</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5063829787234042</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3517730496453901</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4553191489361702</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="I18" t="n">
-        <v>0.47375886524822697</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9232265786809262</v>
+        <v>0.5489772694855419</v>
       </c>
       <c r="K18" t="n">
-        <v>1.6481466472952742</v>
+        <v>1.6515833067964276</v>
       </c>
       <c r="L18" t="n">
-        <v>0.048316251830161056</v>
+        <v>5.661568022640557</v>
       </c>
       <c r="M18" t="n">
-        <v>0.027480572136501853</v>
+        <v>4.616828962692483</v>
       </c>
       <c r="N18" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4269503546099291</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9781659489799424</v>
+        <v>0.7259120029227215</v>
       </c>
       <c r="Q18" t="n">
-        <v>705.0</v>
+        <v>106.0</v>
       </c>
       <c r="R18" t="n">
-        <v>17758.0</v>
+        <v>18902.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="D19" t="n">
-        <v>0.43478260869565216</v>
+        <v>0.36792452830188677</v>
       </c>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9239130434782609</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="G19" t="n">
-        <v>0.11956521739130435</v>
+        <v>0.39622641509433965</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0</v>
+        <v>0.39622641509433965</v>
       </c>
       <c r="J19" t="n">
-        <v>0.916621875846559</v>
+        <v>0.5489772694855419</v>
       </c>
       <c r="K19" t="n">
-        <v>2.9874408019917076</v>
+        <v>1.6515833067964276</v>
       </c>
       <c r="L19" t="n">
-        <v>0.26747222364446266</v>
+        <v>5.661568022640557</v>
       </c>
       <c r="M19" t="n">
-        <v>0.21427474271670682</v>
+        <v>4.616828962692483</v>
       </c>
       <c r="N19" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.11956521739130435</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="P19" t="n">
-        <v>0.876921972427334</v>
+        <v>0.7259120029227215</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.0</v>
+        <v>106.0</v>
       </c>
       <c r="R19" t="n">
-        <v>19531.0</v>
+        <v>18902.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20" t="n">
-        <v>16.0</v>
+        <v>0.17298888162197515</v>
       </c>
       <c r="E20" t="n">
-        <v>1.0</v>
+        <v>0.21648136036625246</v>
       </c>
       <c r="F20" t="n">
-        <v>3.0</v>
+        <v>0.5804447351209941</v>
       </c>
       <c r="G20" t="n">
-        <v>18.0</v>
+        <v>0.12655330281229563</v>
       </c>
       <c r="H20" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.916621875846559</v>
+        <v>0.9496692819266096</v>
       </c>
       <c r="K20" t="n">
-        <v>2.9874408019917076</v>
+        <v>1.9787297871883518</v>
       </c>
       <c r="L20" t="n">
-        <v>0.26747222364446266</v>
+        <v>0.07119549095223969</v>
       </c>
       <c r="M20" t="n">
-        <v>0.21427474271670682</v>
+        <v>0.02538811430831603</v>
       </c>
       <c r="N20" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.11956521739130435</v>
+        <v>0.1788750817527796</v>
       </c>
       <c r="P20" t="n">
-        <v>0.876921972427334</v>
+        <v>0.9703276132094513</v>
       </c>
       <c r="Q20" t="n">
-        <v>92.0</v>
+        <v>3058.0</v>
       </c>
       <c r="R20" t="n">
-        <v>19531.0</v>
+        <v>20226.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9782608695652174</v>
+        <v>0.7305428384565075</v>
       </c>
       <c r="D21" t="n">
-        <v>0.43478260869565216</v>
-      </c>
-      <c r="E21" t="e">
-        <v>#DIV/0!</v>
+        <v>0.17298888162197515</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.21648136036625246</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9239130434782609</v>
+        <v>0.5804447351209941</v>
       </c>
       <c r="G21" t="n">
-        <v>0.17391304347826086</v>
+        <v>0.17168083714846305</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.17429692609548725</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>0.21909744931327665</v>
       </c>
       <c r="J21" t="n">
-        <v>0.916621875846559</v>
+        <v>0.9496692819266096</v>
       </c>
       <c r="K21" t="n">
-        <v>2.9874408019917076</v>
+        <v>1.9787297871883518</v>
       </c>
       <c r="L21" t="n">
-        <v>0.26747222364446266</v>
+        <v>0.07119549095223969</v>
       </c>
       <c r="M21" t="n">
-        <v>0.21427474271670682</v>
+        <v>0.02538811430831603</v>
       </c>
       <c r="N21" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.11956521739130435</v>
+        <v>0.1788750817527796</v>
       </c>
       <c r="P21" t="n">
-        <v>0.876921972427334</v>
+        <v>0.9703276132094513</v>
       </c>
       <c r="Q21" t="n">
-        <v>92.0</v>
+        <v>3058.0</v>
       </c>
       <c r="R21" t="n">
-        <v>19531.0</v>
+        <v>20226.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
@@ -3691,664 +3688,104 @@
         <v>0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5280898876404494</v>
+        <v>0.10476190476190476</v>
       </c>
       <c r="E22" t="n">
-        <v>1.0</v>
+        <v>0.8952380952380953</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9662921348314607</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6629213483146067</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9447722586018809</v>
+        <v>0.14519986509448415</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1282899304784695</v>
+        <v>1.5590696949136464</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3967041614590566</v>
+        <v>13.798800224418454</v>
       </c>
       <c r="M22" t="n">
-        <v>0.36078322455214556</v>
+        <v>17.14332570886021</v>
       </c>
       <c r="N22" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8601801560020534</v>
+        <v>0.725254680008467</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.0</v>
+        <v>105.0</v>
       </c>
       <c r="R22" t="n">
-        <v>21603.0</v>
+        <v>23171.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>8.0</v>
+        <v>0.44761904761904764</v>
       </c>
       <c r="D23" t="n">
-        <v>13.0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E23" t="n">
-        <v>1.0</v>
+        <v>0.8952380952380953</v>
       </c>
       <c r="F23" t="n">
-        <v>2.0</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="G23" t="n">
-        <v>19.0</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
-        <v>12.0</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="I23" t="n">
-        <v>1.0</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9447722586018809</v>
+        <v>0.14519986509448415</v>
       </c>
       <c r="K23" t="n">
-        <v>3.1282899304784695</v>
+        <v>1.5590696949136464</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3967041614590566</v>
+        <v>13.798800224418454</v>
       </c>
       <c r="M23" t="n">
-        <v>0.36078322455214556</v>
+        <v>17.14332570886021</v>
       </c>
       <c r="N23" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8601801560020534</v>
+        <v>0.725254680008467</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.0</v>
+        <v>105.0</v>
       </c>
       <c r="R23" t="n">
-        <v>21603.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7865168539325843</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5280898876404494</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9662921348314607</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.2247191011235955</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.6629213483146067</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9447722586018809</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.1282899304784695</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.3967041614590566</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.36078322455214556</v>
-      </c>
-      <c r="N24" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.0898876404494382</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.8601801560020534</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>21603.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.12264150943396226</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.7641509433962265</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5489772694855419</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.6515833067964276</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5.661568022640557</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4.616828962692483</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.3867924528301887</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.7259120029227215</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5489772694855419</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.6515833067964276</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.661568022640557</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4.616828962692483</v>
-      </c>
-      <c r="N26" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.3867924528301887</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.7259120029227215</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.3867924528301887</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.36792452830188677</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.7641509433962265</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.3867924528301887</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.39622641509433965</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.3867924528301887</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.39622641509433965</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5489772694855419</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.6515833067964276</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.661568022640557</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4.616828962692483</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.3867924528301887</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.7259120029227215</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.17298888162197515</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.21648136036625246</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.5804447351209941</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.12655330281229563</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9496692819266096</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.9787297871883518</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.07119549095223969</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.02538811430831603</v>
-      </c>
-      <c r="N28" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.1788750817527796</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.9703276132094513</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3058.0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.9496692819266096</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.9787297871883518</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.07119549095223969</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.02538811430831603</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.1788750817527796</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.9703276132094513</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3058.0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7305428384565075</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.17298888162197515</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.21648136036625246</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.5804447351209941</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.17168083714846305</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.17429692609548725</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.21909744931327665</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9496692819266096</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.9787297871883518</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.07119549095223969</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.02538811430831603</v>
-      </c>
-      <c r="N30" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.1788750817527796</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.9703276132094513</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3058.0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.10476190476190476</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.8952380952380953</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.08571428571428572</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.14519986509448415</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.5590696949136464</v>
-      </c>
-      <c r="L31" t="n">
-        <v>13.798800224418454</v>
-      </c>
-      <c r="M31" t="n">
-        <v>17.14332570886021</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.725254680008467</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>23171.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.14519986509448415</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.5590696949136464</v>
-      </c>
-      <c r="L32" t="n">
-        <v>13.798800224418454</v>
-      </c>
-      <c r="M32" t="n">
-        <v>17.14332570886021</v>
-      </c>
-      <c r="N32" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.725254680008467</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>23171.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.44761904761904764</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.8952380952380953</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.4380952380952381</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.14519986509448415</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1.5590696949136464</v>
-      </c>
-      <c r="L33" t="n">
-        <v>13.798800224418454</v>
-      </c>
-      <c r="M33" t="n">
-        <v>17.14332570886021</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.725254680008467</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="R33" t="n">
         <v>23171.0</v>
       </c>
     </row>
